--- a/hasil_prediksi_sarima.xlsx
+++ b/hasil_prediksi_sarima.xlsx
@@ -502,7 +502,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -634,7 +634,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -645,7 +645,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -755,7 +755,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -766,7 +766,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -887,7 +887,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -898,7 +898,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
         <v>45352</v>
       </c>
       <c r="B52" t="n">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
         <v>45383</v>
       </c>
       <c r="B53" t="n">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
@@ -1130,13 +1130,13 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>209.7858203391429</v>
+        <v>200</v>
       </c>
       <c r="D62" t="n">
-        <v>154.5144651593804</v>
+        <v>119.3230632560374</v>
       </c>
       <c r="E62" t="n">
-        <v>265.0571755189054</v>
+        <v>280.6769367439626</v>
       </c>
     </row>
     <row r="63">
@@ -1145,13 +1145,13 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>235.2445008453848</v>
+        <v>233</v>
       </c>
       <c r="D63" t="n">
-        <v>178.6217150552423</v>
+        <v>152.3230632560374</v>
       </c>
       <c r="E63" t="n">
-        <v>291.8672866355273</v>
+        <v>313.6769367439626</v>
       </c>
     </row>
     <row r="64">
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>298.7641922851128</v>
+        <v>391</v>
       </c>
       <c r="D64" t="n">
-        <v>242.1414064949703</v>
+        <v>310.3230632560374</v>
       </c>
       <c r="E64" t="n">
-        <v>355.3869780752552</v>
+        <v>471.6769367439626</v>
       </c>
     </row>
     <row r="65">
@@ -1175,13 +1175,13 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>210.1344376359632</v>
+        <v>273</v>
       </c>
       <c r="D65" t="n">
-        <v>153.5116518458208</v>
+        <v>192.3230632560374</v>
       </c>
       <c r="E65" t="n">
-        <v>266.7572234261057</v>
+        <v>353.6769367439626</v>
       </c>
     </row>
     <row r="66">
@@ -1190,13 +1190,13 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>218.4337641670586</v>
+        <v>225</v>
       </c>
       <c r="D66" t="n">
-        <v>161.8109783769161</v>
+        <v>144.3230632560374</v>
       </c>
       <c r="E66" t="n">
-        <v>275.056549957201</v>
+        <v>305.6769367439626</v>
       </c>
     </row>
     <row r="67">
@@ -1205,13 +1205,13 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>233.4017436883314</v>
+        <v>239</v>
       </c>
       <c r="D67" t="n">
-        <v>176.7789578981889</v>
+        <v>158.3230632560374</v>
       </c>
       <c r="E67" t="n">
-        <v>290.0245294784738</v>
+        <v>319.6769367439626</v>
       </c>
     </row>
     <row r="68">
@@ -1220,13 +1220,13 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>232.4991314135303</v>
+        <v>244</v>
       </c>
       <c r="D68" t="n">
-        <v>175.8763456233879</v>
+        <v>163.3230632560374</v>
       </c>
       <c r="E68" t="n">
-        <v>289.1219172036728</v>
+        <v>324.6769367439626</v>
       </c>
     </row>
     <row r="69">
@@ -1235,13 +1235,13 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>216.8715219545261</v>
+        <v>206</v>
       </c>
       <c r="D69" t="n">
-        <v>160.2487361643836</v>
+        <v>125.3230632560374</v>
       </c>
       <c r="E69" t="n">
-        <v>273.4943077446686</v>
+        <v>286.6769367439626</v>
       </c>
     </row>
     <row r="70">
@@ -1250,13 +1250,13 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>215.2040838733888</v>
+        <v>202</v>
       </c>
       <c r="D70" t="n">
-        <v>158.5812980832463</v>
+        <v>121.3230632560374</v>
       </c>
       <c r="E70" t="n">
-        <v>271.8268696635313</v>
+        <v>282.6769367439626</v>
       </c>
     </row>
     <row r="71">
@@ -1265,13 +1265,13 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>220.6658991863539</v>
+        <v>209</v>
       </c>
       <c r="D71" t="n">
-        <v>164.0431133962115</v>
+        <v>128.3230632560374</v>
       </c>
       <c r="E71" t="n">
-        <v>277.2886849764964</v>
+        <v>289.6769367439626</v>
       </c>
     </row>
     <row r="72">
@@ -1280,13 +1280,13 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>230.5058707516542</v>
+        <v>225</v>
       </c>
       <c r="D72" t="n">
-        <v>173.8830849615117</v>
+        <v>144.3230632560374</v>
       </c>
       <c r="E72" t="n">
-        <v>287.1286565417966</v>
+        <v>305.6769367439626</v>
       </c>
     </row>
     <row r="73">
@@ -1295,13 +1295,13 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>226.3237727417553</v>
+        <v>222</v>
       </c>
       <c r="D73" t="n">
-        <v>169.7083161843454</v>
+        <v>141.3230632560374</v>
       </c>
       <c r="E73" t="n">
-        <v>282.9392292991653</v>
+        <v>302.6769367439626</v>
       </c>
     </row>
     <row r="74">
@@ -1310,13 +1310,13 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>215.1145045483518</v>
+        <v>200</v>
       </c>
       <c r="D74" t="n">
-        <v>149.7109556951863</v>
+        <v>85.90558188597133</v>
       </c>
       <c r="E74" t="n">
-        <v>280.5180534015172</v>
+        <v>314.0944181140287</v>
       </c>
     </row>
     <row r="75">
@@ -1325,13 +1325,13 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>228.772857903106</v>
+        <v>233</v>
       </c>
       <c r="D75" t="n">
-        <v>162.958473608194</v>
+        <v>118.9055818859713</v>
       </c>
       <c r="E75" t="n">
-        <v>294.587242198018</v>
+        <v>347.0944181140287</v>
       </c>
     </row>
     <row r="76">
@@ -1340,13 +1340,13 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>228.8307979948065</v>
+        <v>391</v>
       </c>
       <c r="D76" t="n">
-        <v>163.0164136998945</v>
+        <v>276.9055818859713</v>
       </c>
       <c r="E76" t="n">
-        <v>294.6451822897185</v>
+        <v>505.0944181140287</v>
       </c>
     </row>
     <row r="77">
@@ -1355,13 +1355,13 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>200.4540699563039</v>
+        <v>273</v>
       </c>
       <c r="D77" t="n">
-        <v>134.6396856613919</v>
+        <v>158.9055818859713</v>
       </c>
       <c r="E77" t="n">
-        <v>266.2684542512159</v>
+        <v>387.0944181140287</v>
       </c>
     </row>
     <row r="78">
@@ -1370,13 +1370,13 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>224.5263143614829</v>
+        <v>225</v>
       </c>
       <c r="D78" t="n">
-        <v>158.7119300665709</v>
+        <v>110.9055818859713</v>
       </c>
       <c r="E78" t="n">
-        <v>290.3406986563949</v>
+        <v>339.0944181140287</v>
       </c>
     </row>
     <row r="79">
@@ -1385,13 +1385,13 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>229.2931596291887</v>
+        <v>239</v>
       </c>
       <c r="D79" t="n">
-        <v>163.4787753342767</v>
+        <v>124.9055818859713</v>
       </c>
       <c r="E79" t="n">
-        <v>295.1075439241007</v>
+        <v>353.0944181140287</v>
       </c>
     </row>
     <row r="80">
@@ -1400,13 +1400,13 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>235.7427740167408</v>
+        <v>244</v>
       </c>
       <c r="D80" t="n">
-        <v>169.9283897218288</v>
+        <v>129.9055818859713</v>
       </c>
       <c r="E80" t="n">
-        <v>301.5571583116528</v>
+        <v>358.0944181140287</v>
       </c>
     </row>
     <row r="81">
@@ -1415,13 +1415,13 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>215.5612719549653</v>
+        <v>206</v>
       </c>
       <c r="D81" t="n">
-        <v>149.7468876600534</v>
+        <v>91.90558188597133</v>
       </c>
       <c r="E81" t="n">
-        <v>281.3756562498774</v>
+        <v>320.0944181140287</v>
       </c>
     </row>
     <row r="82">
@@ -1430,13 +1430,13 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>214.9609231987431</v>
+        <v>202</v>
       </c>
       <c r="D82" t="n">
-        <v>149.1465389038312</v>
+        <v>87.90558188597133</v>
       </c>
       <c r="E82" t="n">
-        <v>280.7753074936551</v>
+        <v>316.0944181140287</v>
       </c>
     </row>
     <row r="83">
@@ -1445,13 +1445,13 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>225.4455167042162</v>
+        <v>209</v>
       </c>
       <c r="D83" t="n">
-        <v>159.6311324093042</v>
+        <v>94.90558188597133</v>
       </c>
       <c r="E83" t="n">
-        <v>291.2599009991281</v>
+        <v>323.0944181140287</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>220.6306184186088</v>
+        <v>225</v>
       </c>
       <c r="D84" t="n">
-        <v>154.8162341236968</v>
+        <v>110.9055818859713</v>
       </c>
       <c r="E84" t="n">
-        <v>286.4450027135208</v>
+        <v>339.0944181140287</v>
       </c>
     </row>
     <row r="85">
@@ -1475,13 +1475,13 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>226.5395538602737</v>
+        <v>222</v>
       </c>
       <c r="D85" t="n">
-        <v>160.7252154719365</v>
+        <v>107.9055818859713</v>
       </c>
       <c r="E85" t="n">
-        <v>292.3538922486109</v>
+        <v>336.0944181140287</v>
       </c>
     </row>
   </sheetData>

--- a/hasil_prediksi_sarima.xlsx
+++ b/hasil_prediksi_sarima.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,186 +1304,6 @@
         <v>302.6769367439626</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>46023</v>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="n">
-        <v>200</v>
-      </c>
-      <c r="D74" t="n">
-        <v>85.90558188597133</v>
-      </c>
-      <c r="E74" t="n">
-        <v>314.0944181140287</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
-        <v>233</v>
-      </c>
-      <c r="D75" t="n">
-        <v>118.9055818859713</v>
-      </c>
-      <c r="E75" t="n">
-        <v>347.0944181140287</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>46082</v>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
-        <v>391</v>
-      </c>
-      <c r="D76" t="n">
-        <v>276.9055818859713</v>
-      </c>
-      <c r="E76" t="n">
-        <v>505.0944181140287</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>46113</v>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="n">
-        <v>273</v>
-      </c>
-      <c r="D77" t="n">
-        <v>158.9055818859713</v>
-      </c>
-      <c r="E77" t="n">
-        <v>387.0944181140287</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>46143</v>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
-        <v>225</v>
-      </c>
-      <c r="D78" t="n">
-        <v>110.9055818859713</v>
-      </c>
-      <c r="E78" t="n">
-        <v>339.0944181140287</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>46174</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
-        <v>239</v>
-      </c>
-      <c r="D79" t="n">
-        <v>124.9055818859713</v>
-      </c>
-      <c r="E79" t="n">
-        <v>353.0944181140287</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>46204</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="n">
-        <v>244</v>
-      </c>
-      <c r="D80" t="n">
-        <v>129.9055818859713</v>
-      </c>
-      <c r="E80" t="n">
-        <v>358.0944181140287</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>46235</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="n">
-        <v>206</v>
-      </c>
-      <c r="D81" t="n">
-        <v>91.90558188597133</v>
-      </c>
-      <c r="E81" t="n">
-        <v>320.0944181140287</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>46266</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="n">
-        <v>202</v>
-      </c>
-      <c r="D82" t="n">
-        <v>87.90558188597133</v>
-      </c>
-      <c r="E82" t="n">
-        <v>316.0944181140287</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>46296</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="n">
-        <v>209</v>
-      </c>
-      <c r="D83" t="n">
-        <v>94.90558188597133</v>
-      </c>
-      <c r="E83" t="n">
-        <v>323.0944181140287</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>46327</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="n">
-        <v>225</v>
-      </c>
-      <c r="D84" t="n">
-        <v>110.9055818859713</v>
-      </c>
-      <c r="E84" t="n">
-        <v>339.0944181140287</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>46357</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="n">
-        <v>222</v>
-      </c>
-      <c r="D85" t="n">
-        <v>107.9055818859713</v>
-      </c>
-      <c r="E85" t="n">
-        <v>336.0944181140287</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
